--- a/base.xlsx
+++ b/base.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Larin\pythonbot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Documents\LIran\larin_elictive1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t>ключевая фраза</t>
   </si>
@@ -42,6 +42,9 @@
   </si>
   <si>
     <t>AAMCAgADGQEAA0ZiC2w7HPJwW7vh5bW88dp-yEVqEgACmwADw7nhMOHnxbEGWfRvAQAHbQADIwQ</t>
+  </si>
+  <si>
+    <t>ответ</t>
   </si>
 </sst>
 </file>
@@ -368,40 +371,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="2" max="2" width="43.42578125" customWidth="1"/>
+    <col min="2" max="2" width="100.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
       </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/base.xlsx
+++ b/base.xlsx
@@ -2,17 +2,17 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Documents\LIran\larin_elictive1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Larin\PycharmProjects\larin_elictive\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="10935"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="stickers" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>

--- a/base.xlsx
+++ b/base.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="10935"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="10935" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="stickers" sheetId="1" r:id="rId1"/>
+    <sheet name="users" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>ключевая фраза</t>
   </si>
@@ -45,6 +46,18 @@
   </si>
   <si>
     <t>ответ</t>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>gade</t>
   </si>
 </sst>
 </file>
@@ -373,7 +386,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -420,4 +433,33 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/base.xlsx
+++ b/base.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Larin\PycharmProjects\larin_elictive\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Documents\LIran\larin_elictive\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,9 +13,9 @@
   </bookViews>
   <sheets>
     <sheet name="stickers" sheetId="1" r:id="rId1"/>
-    <sheet name="users" sheetId="2" r:id="rId2"/>
+    <sheet name="Users" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t>ключевая фраза</t>
   </si>
@@ -46,24 +46,12 @@
   </si>
   <si>
     <t>ответ</t>
-  </si>
-  <si>
-    <t>user_id</t>
-  </si>
-  <si>
-    <t>sex</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>gade</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -437,29 +425,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>